--- a/data/clip_data.xlsx
+++ b/data/clip_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margarethe/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5A6FD7-F963-E34C-9006-224175DC566B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF2392-1F9E-E94A-88E4-81E7F7E21E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LENA_Supplementary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="186">
   <si>
     <t>Age</t>
   </si>
@@ -436,13 +436,166 @@
   </si>
   <si>
     <t>Total duration of clip during which TV is present</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>C006</t>
+  </si>
+  <si>
+    <t>C007</t>
+  </si>
+  <si>
+    <t>C008</t>
+  </si>
+  <si>
+    <t>C013</t>
+  </si>
+  <si>
+    <t>C015</t>
+  </si>
+  <si>
+    <t>C016</t>
+  </si>
+  <si>
+    <t>C017</t>
+  </si>
+  <si>
+    <t>C021</t>
+  </si>
+  <si>
+    <t>C026</t>
+  </si>
+  <si>
+    <t>C028</t>
+  </si>
+  <si>
+    <t>C032</t>
+  </si>
+  <si>
+    <t>C034</t>
+  </si>
+  <si>
+    <t>C035</t>
+  </si>
+  <si>
+    <t>C039</t>
+  </si>
+  <si>
+    <t>C041</t>
+  </si>
+  <si>
+    <t>C042</t>
+  </si>
+  <si>
+    <t>C043</t>
+  </si>
+  <si>
+    <t>C044</t>
+  </si>
+  <si>
+    <t>C046</t>
+  </si>
+  <si>
+    <t>C049</t>
+  </si>
+  <si>
+    <t>C056</t>
+  </si>
+  <si>
+    <t>C057</t>
+  </si>
+  <si>
+    <t>C062</t>
+  </si>
+  <si>
+    <t>C063</t>
+  </si>
+  <si>
+    <t>C065</t>
+  </si>
+  <si>
+    <t>C066</t>
+  </si>
+  <si>
+    <t>C070</t>
+  </si>
+  <si>
+    <t>C072</t>
+  </si>
+  <si>
+    <t>C074</t>
+  </si>
+  <si>
+    <t>C078</t>
+  </si>
+  <si>
+    <t>C090</t>
+  </si>
+  <si>
+    <t>C027</t>
+  </si>
+  <si>
+    <t>C097</t>
+  </si>
+  <si>
+    <t>C106</t>
+  </si>
+  <si>
+    <t>C111</t>
+  </si>
+  <si>
+    <t>C113</t>
+  </si>
+  <si>
+    <t>C114</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>TimeofRecording</t>
+  </si>
+  <si>
+    <t>DayofWeek</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -580,6 +733,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -926,10 +1086,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1285,15 +1449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ61"/>
+  <dimension ref="A1:AT61"/>
   <sheetViews>
-    <sheetView topLeftCell="AH47" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1:AT1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1423,8 +1587,17 @@
       <c r="AQ1" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1554,8 +1727,17 @@
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1685,8 +1867,17 @@
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1816,8 +2007,17 @@
       <c r="AQ4" s="2">
         <v>0.93006</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1947,8 +2147,17 @@
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2078,8 +2287,17 @@
       <c r="AQ6" s="2">
         <v>5.6796199999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2209,8 +2427,17 @@
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2340,8 +2567,17 @@
       <c r="AQ8" s="2">
         <v>1.13971</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2471,8 +2707,17 @@
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2602,8 +2847,17 @@
       <c r="AQ10" s="2">
         <v>5.3947000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2733,8 +2987,17 @@
       <c r="AQ11" s="2">
         <v>14.77075</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2864,8 +3127,17 @@
       <c r="AQ12" s="2">
         <v>94.376999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS12" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2995,8 +3267,17 @@
       <c r="AQ13" s="2">
         <v>90.103129999999993</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3126,8 +3407,17 @@
       <c r="AQ14" s="2">
         <v>97.646140000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3257,8 +3547,17 @@
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS15" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3388,8 +3687,17 @@
       <c r="AQ16" s="2">
         <v>21.976669999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS16" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3519,8 +3827,17 @@
       <c r="AQ17" s="2">
         <v>57.562690000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3650,8 +3967,17 @@
       <c r="AQ18" s="2">
         <v>23.90794</v>
       </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3781,8 +4107,17 @@
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3912,8 +4247,17 @@
       <c r="AQ20" s="2">
         <v>78.367559999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS20" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4043,8 +4387,17 @@
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS21" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4174,8 +4527,17 @@
       <c r="AQ22" s="2">
         <v>65.236040000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4305,8 +4667,17 @@
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS23" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4436,8 +4807,17 @@
       <c r="AQ24" s="2">
         <v>1.1211</v>
       </c>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS24" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4567,8 +4947,17 @@
       <c r="AQ25" s="2">
         <v>0.48633999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS25" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4698,8 +5087,17 @@
       <c r="AQ26" s="2">
         <v>12.666829999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR26" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4829,8 +5227,17 @@
       <c r="AQ27" s="2">
         <v>6.1670600000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS27" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4960,8 +5367,17 @@
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS28" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5087,8 +5503,17 @@
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS29" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5218,8 +5643,17 @@
       <c r="AQ30" s="2">
         <v>0.58067000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS30" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5349,8 +5783,17 @@
       <c r="AQ31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS31" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5480,8 +5923,17 @@
       <c r="AQ32" s="2">
         <v>7.8858899999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS32" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5607,8 +6059,17 @@
       <c r="AQ33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS33" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5738,8 +6199,17 @@
       <c r="AQ34" s="2">
         <v>12.303509999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR34" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS34" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5869,8 +6339,17 @@
       <c r="AQ35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5996,8 +6475,17 @@
       <c r="AQ36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR36" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS36" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -6127,8 +6615,17 @@
       <c r="AQ37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS37" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -6254,8 +6751,17 @@
       <c r="AQ38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -6385,8 +6891,17 @@
       <c r="AQ39" s="2">
         <v>74.173069999999996</v>
       </c>
-    </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR39" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS39" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -6516,8 +7031,17 @@
       <c r="AQ40" s="2">
         <v>99.180620000000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS40" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -6647,8 +7171,17 @@
       <c r="AQ41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR41" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS41" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -6778,8 +7311,17 @@
       <c r="AQ42" s="2">
         <v>89.644980000000004</v>
       </c>
-    </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR42" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS42" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -6909,8 +7451,17 @@
       <c r="AQ43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR43" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS43" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -7040,8 +7591,17 @@
       <c r="AQ44" s="2">
         <v>151.76553999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR44" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS44" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -7171,8 +7731,17 @@
       <c r="AQ45" s="2">
         <v>85.01876</v>
       </c>
-    </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS45" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -7302,8 +7871,17 @@
       <c r="AQ46" s="2">
         <v>268.02339999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS46" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -7433,8 +8011,17 @@
       <c r="AQ47" s="2">
         <v>1.14916</v>
       </c>
-    </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS47" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -7564,8 +8151,17 @@
       <c r="AQ48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS48" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -7695,8 +8291,17 @@
       <c r="AQ49" s="2">
         <v>0.56147000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR49" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS49" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -7822,8 +8427,17 @@
       <c r="AQ50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR50" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS50" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -7953,8 +8567,17 @@
       <c r="AQ51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR51" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS51" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -8084,8 +8707,17 @@
       <c r="AQ52" s="2">
         <v>81.245919999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR52" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS52" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -8215,8 +8847,17 @@
       <c r="AQ53" s="2">
         <v>79.167929999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR53" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS53" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -8346,8 +8987,17 @@
       <c r="AQ54" s="2">
         <v>119.90624</v>
       </c>
-    </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR54" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS54" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -8477,8 +9127,17 @@
       <c r="AQ55" s="2">
         <v>85.550190000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR55" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS55" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -8608,8 +9267,17 @@
       <c r="AQ56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR56" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS56" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -8735,8 +9403,17 @@
       <c r="AQ57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR57" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS57" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -8866,8 +9543,17 @@
       <c r="AQ58" s="2">
         <v>33.975340000000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR58" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS58" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -8997,8 +9683,17 @@
       <c r="AQ59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR59" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS59" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -9128,8 +9823,17 @@
       <c r="AQ60" s="2">
         <v>59.45431</v>
       </c>
-    </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AR60" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS60" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -9258,6 +9962,15 @@
       </c>
       <c r="AQ61" s="2">
         <v>5.8978400000000004</v>
+      </c>
+      <c r="AR61" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS61" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -9269,7 +9982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
